--- a/data/trans_dic/P44A$sangre-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Edad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1218719691206619</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.647704870928731</v>
+        <v>0.6477048709287307</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.09965556340791482</v>
@@ -655,7 +655,7 @@
         <v>0.09293696883522923</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7210373177003195</v>
+        <v>0.7210373177003198</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1480991730330238</v>
@@ -664,7 +664,7 @@
         <v>0.1134276515717035</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6804754681402453</v>
+        <v>0.6804754681402454</v>
       </c>
     </row>
     <row r="5">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0</v>
+        <v>0.06198084278228379</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03641534546735507</v>
+        <v>0.03691260520749317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5394401681332596</v>
+        <v>0.5366764625847832</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6329701857276429</v>
+        <v>0.6344965036458691</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05744408620328972</v>
+        <v>0.05619171979900695</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02993384805587438</v>
+        <v>0.02842616711997522</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.617398440207806</v>
+        <v>0.6073055657332842</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4845092257882382</v>
+        <v>0.5017137913951882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2950216576228817</v>
+        <v>0.2962042281883574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7369801792775783</v>
+        <v>0.7412870485866333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3009837947666453</v>
+        <v>0.3051336190337403</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4143736181952201</v>
+        <v>0.3952640000378411</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7937895133401104</v>
+        <v>0.7953490214102497</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2958330630930919</v>
+        <v>0.3012060038713673</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2595904151026784</v>
+        <v>0.2580537326109488</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7501391041743772</v>
+        <v>0.7397204678655661</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.08608363084761124</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7748368870526716</v>
+        <v>0.7748368870526714</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1014409183573635</v>
@@ -773,7 +773,7 @@
         <v>0.08190686612054925</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.7064335137836647</v>
+        <v>0.7064335137836645</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0545751554260994</v>
+        <v>0.05450105781746465</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02007054591087255</v>
+        <v>0.01859649196320511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.578298238754914</v>
+        <v>0.5791822526600622</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02726707240009337</v>
+        <v>0.02717410243758422</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7237061729122676</v>
+        <v>0.7164465417961746</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03145323882608271</v>
+        <v>0.04194254938347942</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03489414164669459</v>
+        <v>0.03501141494059008</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.667512210969488</v>
+        <v>0.6657376469588655</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3267964696365669</v>
+        <v>0.3320426825448499</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1828908135273254</v>
+        <v>0.1790160942347283</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7050267109253684</v>
+        <v>0.7092821674190296</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1382736722485366</v>
+        <v>0.1498558198308609</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2136248845600525</v>
+        <v>0.2096354528832525</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8211867258678908</v>
+        <v>0.8191668370427498</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2165180912291637</v>
+        <v>0.2071861129854615</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1546699797438113</v>
+        <v>0.1621652381515242</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7495186417740088</v>
+        <v>0.7478111601187939</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.118438980647816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6216885035923227</v>
+        <v>0.6216885035923229</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1236159152579814</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05803567791118123</v>
+        <v>0.05774500771924461</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.036974530724737</v>
+        <v>0.03515344770443457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5595857837682727</v>
+        <v>0.5595499218612849</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03085256674157452</v>
+        <v>0.03045250373226789</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03246469617611752</v>
+        <v>0.03313739541878917</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6635191026444783</v>
+        <v>0.6633445572257504</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06412111259615769</v>
+        <v>0.0758271225137382</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05595501942901156</v>
+        <v>0.05862885972364276</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6258212047496949</v>
+        <v>0.6255997323310502</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3421283443926428</v>
+        <v>0.332457021446067</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2693752162509804</v>
+        <v>0.2710086536524668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6840133356495185</v>
+        <v>0.6792485270450681</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2890718749735604</v>
+        <v>0.2738578827874091</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2842356795984773</v>
+        <v>0.2998585557283996</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7710812735709784</v>
+        <v>0.7655909665081249</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.240967397941405</v>
+        <v>0.2477011334510259</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2321082945334738</v>
+        <v>0.2250446424140864</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.706837160518576</v>
+        <v>0.7043458223631812</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.1223153469940644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6637485504603495</v>
+        <v>0.6637485504603494</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.1025544488126821</v>
@@ -982,7 +982,7 @@
         <v>0.03342336612582406</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.5784154902651227</v>
+        <v>0.5784154902651226</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.1587652742195048</v>
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08010510680238835</v>
+        <v>0.08121712735496639</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04672463676948384</v>
+        <v>0.04734623785032729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5836342068154434</v>
+        <v>0.5894285142862129</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -1017,16 +1017,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5054501916321069</v>
+        <v>0.5100166348182149</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06893718936614289</v>
+        <v>0.07002004453568758</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02804257630930435</v>
+        <v>0.03081315547382065</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5624122031395812</v>
+        <v>0.562485550390161</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.410130978192387</v>
+        <v>0.376263313704383</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2484397093475688</v>
+        <v>0.2490821132281424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7410188486585898</v>
+        <v>0.7392100197871654</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3132433724541926</v>
+        <v>0.311803953179569</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1696076061236316</v>
+        <v>0.1639229787837141</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6503104241463353</v>
+        <v>0.6448197610072461</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3018155973404099</v>
+        <v>0.2971210505864869</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1597599845995913</v>
+        <v>0.1528629954260586</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6686111443022826</v>
+        <v>0.6713292242895672</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.08229093583507152</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7058988816476025</v>
+        <v>0.7058988816476026</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1331319971424602</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06350833870925576</v>
+        <v>0.06536828087019228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6083765060977885</v>
+        <v>0.6057431317623412</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03769291518248413</v>
+        <v>0.03844152127638911</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.037157305879423</v>
+        <v>0.0381829052693855</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6737786560590471</v>
+        <v>0.6741386403359227</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09275409541641207</v>
+        <v>0.093762127756435</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06481844291074078</v>
+        <v>0.06210430274424061</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6470004662734906</v>
+        <v>0.6484998118830496</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1624571092941199</v>
+        <v>0.1672472178264327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6755513817084396</v>
+        <v>0.6790323291057185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1561383880379678</v>
+        <v>0.158832619243896</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1533160264765593</v>
+        <v>0.1422265675815723</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7360994463435225</v>
+        <v>0.7345240439931018</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1929018547174938</v>
+        <v>0.1929437434639666</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1386598098097961</v>
+        <v>0.1402062856021956</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6951310442345715</v>
+        <v>0.6965629419224536</v>
       </c>
     </row>
     <row r="19">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>51244</v>
+        <v>50982</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>48579</v>
+        <v>48696</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1992</v>
+        <v>1949</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1132</v>
+        <v>1075</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>106033</v>
+        <v>104300</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6866</v>
+        <v>7110</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7901</v>
+        <v>7933</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>70009</v>
+        <v>70419</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6173</v>
+        <v>6258</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4573</v>
+        <v>4363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>60922</v>
+        <v>61041</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10260</v>
+        <v>10446</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9817</v>
+        <v>9759</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>128830</v>
+        <v>127041</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1052</v>
+        <v>974</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>111941</v>
+        <v>112112</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>126338</v>
+        <v>125071</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2299</v>
+        <v>3066</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3149</v>
+        <v>3159</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>245739</v>
+        <v>245085</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12856</v>
+        <v>13063</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9583</v>
+        <v>9380</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>136472</v>
+        <v>137296</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>4669</v>
+        <v>5060</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8084</v>
+        <v>7933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>143355</v>
+        <v>143003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15829</v>
+        <v>15146</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13957</v>
+        <v>14633</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>275929</v>
+        <v>275300</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1624</v>
+        <v>1544</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>99384</v>
+        <v>99377</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1013</v>
+        <v>1034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>104541</v>
+        <v>104513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3975</v>
+        <v>4701</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4202</v>
+        <v>4403</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>209749</v>
+        <v>209675</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10474</v>
+        <v>10178</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11829</v>
+        <v>11900</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>121482</v>
+        <v>120636</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9072</v>
+        <v>8594</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8866</v>
+        <v>9353</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>121488</v>
+        <v>120623</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14939</v>
+        <v>15357</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17432</v>
+        <v>16902</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>236902</v>
+        <v>236067</v>
       </c>
     </row>
     <row r="16">
@@ -1831,13 +1831,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2022</v>
+        <v>2050</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1710</v>
+        <v>1733</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>61109</v>
+        <v>61716</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>60347</v>
+        <v>60892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3208</v>
+        <v>3258</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2037</v>
+        <v>2239</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>126035</v>
+        <v>126051</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10352</v>
+        <v>9497</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9092</v>
+        <v>9116</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>77588</v>
+        <v>77399</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6671</v>
+        <v>6640</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6115</v>
+        <v>5910</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>77642</v>
+        <v>76986</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>14045</v>
+        <v>13827</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11607</v>
+        <v>11106</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>149834</v>
+        <v>150443</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10141</v>
+        <v>10438</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>347305</v>
+        <v>345801</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4031</v>
+        <v>4111</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4315</v>
+        <v>4434</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>355934</v>
+        <v>356125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20064</v>
+        <v>20282</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17878</v>
+        <v>17129</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>711142</v>
+        <v>712790</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25942</v>
+        <v>26707</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>385653</v>
+        <v>387640</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16699</v>
+        <v>16987</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17804</v>
+        <v>16516</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>388856</v>
+        <v>388024</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41728</v>
+        <v>41737</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>38244</v>
+        <v>38671</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>764044</v>
+        <v>765618</v>
       </c>
     </row>
     <row r="24">
